--- a/src/test/php.xlsx
+++ b/src/test/php.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="14880" windowHeight="5964"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="13908" windowHeight="5460" tabRatio="977"/>
   </bookViews>
   <sheets>
     <sheet name="Signup_Poitive" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Cars_Data" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:M17"/>
+  <oleSize ref="A1:L15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Sandy</t>
   </si>
@@ -34,9 +34,6 @@
 php@travels@1234</t>
   </si>
   <si>
-    <t>KV</t>
-  </si>
-  <si>
     <t>php@travels@1234</t>
   </si>
   <si>
@@ -46,19 +43,28 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>~abc@gmail.com</t>
-  </si>
-  <si>
-    <t>~1234567</t>
-  </si>
-  <si>
     <t>Hi, Sandy kv</t>
   </si>
   <si>
     <t>bangalore</t>
   </si>
   <si>
-    <t>sandytocode90@gmail.com</t>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>sandytocode103@gmail.com</t>
+  </si>
+  <si>
+    <t>sandytocode104@gmail.com</t>
+  </si>
+  <si>
+    <t>sandytocode1111@gmail.com</t>
+  </si>
+  <si>
+    <t>sandytocode1112@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -74,17 +80,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,28 +112,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -441,31 +441,31 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
+      <c r="A4" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="28.8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="28.8">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -481,7 +481,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -501,44 +501,39 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="12.6" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6"/>
+      <c r="A10" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -547,7 +542,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -556,32 +551,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
+      <c r="A1" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
+      <c r="A5" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -592,7 +586,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -601,36 +595,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
+      <c r="A1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
+      <c r="A2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -639,75 +630,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
+      <c r="A1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A10:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>